--- a/Kostenaufstellung.xlsx
+++ b/Kostenaufstellung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Abschlussarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BACE4E-CD75-4B0F-8832-0C745443638E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B285FA43-EB7B-46E1-8974-4054245CF420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{BE37E7E4-FFA8-4AC4-8962-82A3E7FE6423}"/>
+    <workbookView xWindow="6210" yWindow="2325" windowWidth="21600" windowHeight="12735" xr2:uid="{BE37E7E4-FFA8-4AC4-8962-82A3E7FE6423}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Bereich</t>
   </si>
@@ -102,6 +102,39 @@
   </si>
   <si>
     <t>Infrastruktur Software (Scrum-Tools)</t>
+  </si>
+  <si>
+    <t>Identifizierung von Queries (Debug)</t>
+  </si>
+  <si>
+    <t>vor Projekt</t>
+  </si>
+  <si>
+    <t>Anzahl monatlich</t>
+  </si>
+  <si>
+    <t>nach Projekt</t>
+  </si>
+  <si>
+    <t>einsparung</t>
+  </si>
+  <si>
+    <t>Gesamt:</t>
+  </si>
+  <si>
+    <t>Übertragen von Spaltennamen von SSMS nach VS2019</t>
+  </si>
+  <si>
+    <t>Hinzufügen der SQL-Parameter zu SQL-Command</t>
+  </si>
+  <si>
+    <t>Prüfung der Daten durch Mitarbeiter</t>
+  </si>
+  <si>
+    <t>Verfassen der Insert-, Update- und Delete-Query</t>
+  </si>
+  <si>
+    <t>Manuelles Übertragen der Datentypen von SQL nach .NET</t>
   </si>
 </sst>
 </file>
@@ -154,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -171,6 +204,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -485,17 +519,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0BEDD0-C3AA-40BA-8BB1-4BEF715DE9F4}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -544,19 +579,19 @@
         <v>4</v>
       </c>
       <c r="D3" s="4">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E3" s="4">
         <f>C3*D3</f>
-        <v>288</v>
+        <v>160</v>
       </c>
       <c r="F3" s="4">
         <f>0.3*E3</f>
-        <v>86.399999999999991</v>
+        <v>48</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:G6" si="0">SUM(E3,F3)</f>
-        <v>374.4</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -570,19 +605,19 @@
         <v>8</v>
       </c>
       <c r="D4" s="4">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="E4" s="4">
         <f>C4*D4</f>
-        <v>680</v>
+        <v>360</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ref="F4:F6" si="1">0.3*E4</f>
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="0"/>
-        <v>884</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -599,7 +634,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E4:E6" si="2">C5*D5</f>
+        <f t="shared" ref="E5:E6" si="2">C5*D5</f>
         <v>700</v>
       </c>
       <c r="F5" s="4">
@@ -622,19 +657,19 @@
         <v>2</v>
       </c>
       <c r="D6" s="4">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -644,19 +679,19 @@
       </c>
       <c r="D7" s="4">
         <f>SUM(D3:D6)</f>
-        <v>257</v>
+        <v>155</v>
       </c>
       <c r="E7" s="5">
         <f>SUM(E2:E6)</f>
-        <v>1848</v>
+        <v>1340</v>
       </c>
       <c r="F7" s="5">
         <f>SUM(F2:F6)</f>
-        <v>554.4</v>
+        <v>402</v>
       </c>
       <c r="G7" s="5">
         <f>SUM(G2:G6)</f>
-        <v>2402.4</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -721,7 +756,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -729,20 +764,158 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G18" s="2">
         <f>SUM(G12:G17)</f>
         <v>701</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="1">
         <f>SUM(G7,G18)</f>
-        <v>3103.4</v>
-      </c>
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <f>C25*D25-C25*E25</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26:F32" si="3">C26*D26-C26*E26</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <f>$C$26*3</f>
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:C30" si="4">$C$26*3</f>
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31">
+        <f>SUM(F25:F30)</f>
+        <v>778</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
